--- a/comprasVentasSueldos.xlsx
+++ b/comprasVentasSueldos.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24701"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24931"/>
   <workbookPr hidePivotFieldList="1" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Jose Ojeda\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\workspace\TutorialesPropios\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{12C9B6CD-AB84-47D0-8A7D-186E2CD81FC8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F7C83C4E-7BAC-45CE-8908-10BF2029BF83}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13140" xr2:uid="{13C632CA-D64C-44A6-8011-B21A4EA36921}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{13C632CA-D64C-44A6-8011-B21A4EA36921}"/>
   </bookViews>
   <sheets>
     <sheet name="datos" sheetId="4" r:id="rId1"/>
@@ -19,7 +19,7 @@
     <externalReference r:id="rId2"/>
   </externalReferences>
   <definedNames>
-    <definedName name="_xlcn.WorksheetConnection_ventas.xlsmTabla11" hidden="1">[1]!Tabla1[#Data]</definedName>
+    <definedName name="_xlcn.WorksheetConnection_ventas.xlsmTabla1" hidden="1">[1]!Tabla1[#Data]</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -85,7 +85,7 @@
     <extLst>
       <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{DE250136-89BD-433C-8126-D09CA5730AF9}">
         <x15:connection id="Tabla1 1" autoDelete="1">
-          <x15:rangePr sourceName="_xlcn.WorksheetConnection_ventas.xlsmTabla11"/>
+          <x15:rangePr sourceName="_xlcn.WorksheetConnection_ventas.xlsmTabla1"/>
         </x15:connection>
       </ext>
     </extLst>
@@ -111,7 +111,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="x14ac x16r2 xr xr9">
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -149,7 +149,9 @@
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="1" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16">
+    <tableStyle name="Invisible" pivot="0" table="0" count="0" xr9:uid="{2AD712FB-7559-48E5-91B4-EDD2FD1F5312}"/>
+  </tableStyles>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -478,7 +480,7 @@
   <dimension ref="A1:D109"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F22" sqref="F22"/>
+      <selection activeCell="J10" sqref="J10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
